--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/COFORGE LIMITED Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/COFORGE LIMITED Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -633,7 +633,7 @@
         <v>39.6</v>
       </c>
       <c r="O2">
-        <v>43.64315789473684</v>
+        <v>43.64</v>
       </c>
       <c r="P2">
         <v>-0.65</v>
@@ -713,7 +713,7 @@
         <v>0.32</v>
       </c>
       <c r="P3">
-        <v>-3.680526315789473</v>
+        <v>-3.68</v>
       </c>
       <c r="Q3">
         <v>1.15</v>
@@ -891,7 +891,7 @@
         <v>38.16</v>
       </c>
       <c r="X5">
-        <v>7.914285714285715</v>
+        <v>7.91</v>
       </c>
       <c r="Y5">
         <v>65</v>
@@ -1661,7 +1661,7 @@
         <v>76.8</v>
       </c>
       <c r="X15">
-        <v>7.914285714285715</v>
+        <v>7.91</v>
       </c>
       <c r="Y15">
         <v>150</v>
@@ -1741,7 +1741,7 @@
         <v>14.9</v>
       </c>
       <c r="Y16">
-        <v>186.3157894736842</v>
+        <v>186.32</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1892,7 +1892,7 @@
         <v>68.7</v>
       </c>
       <c r="X18">
-        <v>7.914285714285715</v>
+        <v>7.91</v>
       </c>
       <c r="Y18">
         <v>130</v>
@@ -1969,7 +1969,7 @@
         <v>315.5</v>
       </c>
       <c r="X19">
-        <v>7.914285714285715</v>
+        <v>7.91</v>
       </c>
       <c r="Y19">
         <v>520</v>
@@ -2046,7 +2046,7 @@
         <v>353.7</v>
       </c>
       <c r="X20">
-        <v>7.914285714285715</v>
+        <v>7.91</v>
       </c>
       <c r="Y20">
         <v>640</v>
@@ -2123,7 +2123,7 @@
         <v>466.6</v>
       </c>
       <c r="X21">
-        <v>7.914285714285715</v>
+        <v>7.91</v>
       </c>
       <c r="Y21">
         <v>760</v>
